--- a/FIN-6322/Chapter 9/Chp 9 practice.xlsx
+++ b/FIN-6322/Chapter 9/Chp 9 practice.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twodegrees1-my.sharepoint.com/personal/rahul_kotian_slalom_com/Documents/Documents/Personal/UTD/Summer - 24/FIN-6322/Chapter 9/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="142" documentId="11_F25DC773A252ABDACC1048F6399F61A85BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28F72840-F5C8-4344-87DE-0CA39756ABC5}"/>
+  <xr:revisionPtr revIDLastSave="170" documentId="11_F25DC773A252ABDACC1048F6399F61A85BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75455DEB-D6A1-4A26-BF83-5D4D4F87B4BB}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="5940" yWindow="2200" windowWidth="9600" windowHeight="4850" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="9-3" sheetId="2" r:id="rId2"/>
-    <sheet name="9-4" sheetId="3" r:id="rId3"/>
+    <sheet name="NOI" sheetId="4" r:id="rId2"/>
+    <sheet name="Load Factor" sheetId="5" r:id="rId3"/>
+    <sheet name="9-3" sheetId="2" r:id="rId4"/>
+    <sheet name="9-4" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
   <si>
     <t>Average/yr</t>
   </si>
@@ -149,6 +151,36 @@
   </si>
   <si>
     <t>In-line tenants pay per sqft</t>
+  </si>
+  <si>
+    <t>- Vacancy and Collection Losses</t>
+  </si>
+  <si>
+    <t>= Effective Gross Income (EGI)</t>
+  </si>
+  <si>
+    <t>-Operating Expenses</t>
+  </si>
+  <si>
+    <t>= NOI (Net Operating Income)</t>
+  </si>
+  <si>
+    <t>Gross Rental Income</t>
+  </si>
+  <si>
+    <t>Load Factor</t>
+  </si>
+  <si>
+    <t>Rentable area</t>
+  </si>
+  <si>
+    <t>Usable area</t>
+  </si>
+  <si>
+    <t>Load factor / Common area / Add-on Facor</t>
+  </si>
+  <si>
+    <t>Tenant counter offer</t>
   </si>
 </sst>
 </file>
@@ -216,7 +248,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -250,12 +282,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -273,6 +314,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -556,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -730,322 +773,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D88EB0-40EA-46B2-B8E5-409A54854A1A}">
-  <dimension ref="B3:M35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54937671-8037-4C95-AAAC-49B4E32D2764}">
+  <dimension ref="C3:D7"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B6" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-      <c r="G8">
-        <v>4</v>
-      </c>
-      <c r="H8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1">
-        <v>20</v>
-      </c>
-      <c r="E9" s="1">
-        <v>21</v>
-      </c>
-      <c r="F9" s="1">
-        <v>22</v>
-      </c>
-      <c r="G9" s="1">
-        <v>23</v>
-      </c>
-      <c r="H9" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="5">
-        <f>AVERAGE(D9:H9)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="3">
-        <f>NPV(D4,D9:H9)</f>
-        <v>82.67753692929567</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="3">
-        <f>PMT(D4,H8,-D11)</f>
-        <v>21.810125960262727</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B14" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>3</v>
-      </c>
-      <c r="G16">
-        <v>4</v>
-      </c>
-      <c r="H16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17">
-        <v>24</v>
-      </c>
-      <c r="E17">
-        <v>25</v>
-      </c>
-      <c r="F17">
-        <v>26</v>
-      </c>
-      <c r="G17">
-        <v>27</v>
-      </c>
-      <c r="H17">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="J18" t="s">
-        <v>15</v>
-      </c>
-      <c r="M18">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="3">
-        <f>NPV(D4,D17:H17)</f>
-        <v>97.84068400692945</v>
-      </c>
-      <c r="J19" t="s">
-        <v>16</v>
-      </c>
-      <c r="M19">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B22" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22">
-        <f>-M18/D3</f>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B23" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23">
-        <f>-M19/D3</f>
-        <v>-2.5</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="3">
-        <f>D19+D22+D23</f>
-        <v>90.34068400692945</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="3">
-        <f>PMT(D4,H16,-D24)</f>
-        <v>23.831644854302137</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B28" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>3</v>
-      </c>
-      <c r="G30">
-        <v>4</v>
-      </c>
-      <c r="H30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B31" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="1">
-        <v>23</v>
-      </c>
-      <c r="E31" s="1">
-        <v>24</v>
-      </c>
-      <c r="F31" s="1">
-        <v>25</v>
-      </c>
-      <c r="G31" s="1">
-        <v>26</v>
-      </c>
-      <c r="H31" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" s="5">
-        <f>-L32</f>
-        <v>-15</v>
-      </c>
-      <c r="K32" t="s">
-        <v>22</v>
-      </c>
-      <c r="L32" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" s="5">
-        <f>D31+D32</f>
-        <v>8</v>
-      </c>
-      <c r="E33" s="5">
-        <f t="shared" ref="E33:H33" si="0">E31+E32</f>
-        <v>24</v>
-      </c>
-      <c r="F33" s="5">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="G33" s="5">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="H33" s="5">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B34" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" s="3">
-        <f>NPV(D4,D33:H33)</f>
-        <v>80.413533601157368</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B35" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="3">
-        <f>PMT(D4,H30,D34)</f>
-        <v>-21.212887585788927</v>
+    <row r="3" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C4" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C5" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C6" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="16"/>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C7" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1054,11 +814,383 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A48D6BF8-AECC-46F9-BE23-BC8B02D54384}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="10">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3">
+        <f>E1/E2</f>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D88EB0-40EA-46B2-B8E5-409A54854A1A}">
+  <dimension ref="B3:M35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="16.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1">
+        <v>21</v>
+      </c>
+      <c r="F9" s="1">
+        <v>22</v>
+      </c>
+      <c r="G9" s="1">
+        <v>23</v>
+      </c>
+      <c r="H9" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="5">
+        <f>AVERAGE(D9:H9)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="3">
+        <f>NPV(D4,D9:H9)</f>
+        <v>82.67753692929567</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="3">
+        <f>PMT(D4,H8,-D11)</f>
+        <v>21.810125960262727</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B14" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>25</v>
+      </c>
+      <c r="F17">
+        <v>26</v>
+      </c>
+      <c r="G17">
+        <v>27</v>
+      </c>
+      <c r="H17">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="J18" t="s">
+        <v>15</v>
+      </c>
+      <c r="M18">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3">
+        <f>NPV(D4,D17:H17)</f>
+        <v>97.84068400692945</v>
+      </c>
+      <c r="J19" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22">
+        <f>-M18/D3</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B23" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23">
+        <f>-M19/D3</f>
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="3">
+        <f>D19+D22+D23</f>
+        <v>90.34068400692945</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="3">
+        <f>PMT(D4,H16,-D24)</f>
+        <v>23.831644854302137</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B28" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>4</v>
+      </c>
+      <c r="H30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="1">
+        <v>23</v>
+      </c>
+      <c r="E31" s="1">
+        <v>24</v>
+      </c>
+      <c r="F31" s="1">
+        <v>25</v>
+      </c>
+      <c r="G31" s="1">
+        <v>26</v>
+      </c>
+      <c r="H31" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="5">
+        <f>-L32</f>
+        <v>-15</v>
+      </c>
+      <c r="K32" t="s">
+        <v>22</v>
+      </c>
+      <c r="L32" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="5">
+        <f>D31+D32</f>
+        <v>8</v>
+      </c>
+      <c r="E33" s="5">
+        <f t="shared" ref="E33:H33" si="0">E31+E32</f>
+        <v>24</v>
+      </c>
+      <c r="F33" s="5">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G33" s="5">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H33" s="5">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="3">
+        <f>NPV(D4,D33:H33)</f>
+        <v>80.413533601157368</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="3">
+        <f>PMT(D4,H30,D34)</f>
+        <v>-21.212887585788927</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D7EC9F7-B48C-4B5D-AD47-3AB9E048C832}">
   <dimension ref="C3:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
